--- a/medicine/Pharmacie/Antoine_Chéreau/Antoine_Chéreau.xlsx
+++ b/medicine/Pharmacie/Antoine_Chéreau/Antoine_Chéreau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antoine_Ch%C3%A9reau</t>
+          <t>Antoine_Chéreau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoine Chéreau (Paris, 12 décembre 1776 - Paris, 24 mai 1848) est un pharmacien français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antoine_Ch%C3%A9reau</t>
+          <t>Antoine_Chéreau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Membre de l'Académie de médecine et de la Société de pharmacie dont il deviendra président, il est célèbre pour avoir essayé d'établir la première nomenclature méthodique des médicaments simples et composés.
 Dans le Journal de pharmacie, il a aussi publié des notes sur les élixirs parégoriques, sur l'esculine et l'opium de Perse. On lui doit aussi, avec Deschaleris, un Mémoire sur les végétaux cryptogames utiles (1825).
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Antoine_Ch%C3%A9reau</t>
+          <t>Antoine_Chéreau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répertoire du pharmacien contenant tous les médicamens simples et composés, 1810
 Nouvelle nomenclature pharmaceutique, 1825
